--- a/artfynd/A 34360-2021.xlsx
+++ b/artfynd/A 34360-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94979361</v>
+        <v>94980872</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,48 +692,45 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Skurtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572430.1908244109</v>
+        <v>572435.745707145</v>
       </c>
       <c r="R2" t="n">
-        <v>6701241.788604234</v>
+        <v>6701433.942975808</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -765,7 +762,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +772,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +799,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94979464</v>
+        <v>94979072</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,48 +811,45 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Skurtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572409.0058300388</v>
+        <v>572416.4402874345</v>
       </c>
       <c r="R3" t="n">
-        <v>6701262.594218019</v>
+        <v>6701459.721651074</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -887,7 +881,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -897,7 +891,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -924,7 +918,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94979470</v>
+        <v>94979361</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -957,7 +951,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -966,14 +964,14 @@
       <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Skurtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572458.1188458267</v>
+        <v>572430.1908244109</v>
       </c>
       <c r="R4" t="n">
-        <v>6701230.004390508</v>
+        <v>6701241.788604234</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1005,7 +1003,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1015,7 +1013,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1030,19 +1028,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Mariapaz Ojeda</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mariapaz Ojeda</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94979424</v>
+        <v>94979464</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1075,7 +1073,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -1088,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572426.1968956392</v>
+        <v>572409.0058300388</v>
       </c>
       <c r="R5" t="n">
-        <v>6701243.683577545</v>
+        <v>6701262.594218019</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1123,7 +1125,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>20:41</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1133,7 +1135,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>20:41</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,10 +1162,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94979445</v>
+        <v>94979470</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,45 +1174,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Skurtjärn, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572423.8744920741</v>
+        <v>572458.1188458267</v>
       </c>
       <c r="R6" t="n">
-        <v>6701260.916536125</v>
+        <v>6701230.004390508</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1242,7 +1243,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>20:42</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1252,7 +1253,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>20:42</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,22 +1268,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Mariapaz Ojeda</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Mariapaz Ojeda</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94980872</v>
+        <v>94979424</v>
       </c>
       <c r="B7" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,45 +1292,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Skurtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572435.745707145</v>
+        <v>572426.1968956392</v>
       </c>
       <c r="R7" t="n">
-        <v>6701433.942975808</v>
+        <v>6701243.683577545</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1398,10 +1398,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94979072</v>
+        <v>94979445</v>
       </c>
       <c r="B8" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572416.4402874345</v>
+        <v>572423.8744920741</v>
       </c>
       <c r="R8" t="n">
-        <v>6701459.721651074</v>
+        <v>6701260.916536125</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>20:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>20:42</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 34360-2021.xlsx
+++ b/artfynd/A 34360-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94980872</v>
+        <v>94979361</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,45 +692,48 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Skurtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572435.745707145</v>
+        <v>572430.1908244109</v>
       </c>
       <c r="R2" t="n">
-        <v>6701433.942975808</v>
+        <v>6701241.788604234</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -762,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -772,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -799,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94979072</v>
+        <v>94979464</v>
       </c>
       <c r="B3" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,45 +814,48 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Skurtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572416.4402874345</v>
+        <v>572409.0058300388</v>
       </c>
       <c r="R3" t="n">
-        <v>6701459.721651074</v>
+        <v>6701262.594218019</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -881,7 +887,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -891,7 +897,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -918,7 +924,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94979361</v>
+        <v>94979470</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -951,11 +957,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -964,14 +966,14 @@
       <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Skurtjärn, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572430.1908244109</v>
+        <v>572458.1188458267</v>
       </c>
       <c r="R4" t="n">
-        <v>6701241.788604234</v>
+        <v>6701230.004390508</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1003,7 +1005,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1013,7 +1015,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,19 +1030,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Mariapaz Ojeda</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Mariapaz Ojeda</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94979464</v>
+        <v>94979424</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1073,11 +1075,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -1090,10 +1088,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572409.0058300388</v>
+        <v>572426.1968956392</v>
       </c>
       <c r="R5" t="n">
-        <v>6701262.594218019</v>
+        <v>6701243.683577545</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1125,7 +1123,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>20:41</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1135,7 +1133,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>20:41</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1162,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94979470</v>
+        <v>94979445</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,44 +1172,45 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Skurtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572458.1188458267</v>
+        <v>572423.8744920741</v>
       </c>
       <c r="R6" t="n">
-        <v>6701230.004390508</v>
+        <v>6701260.916536125</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1243,7 +1242,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>20:42</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1253,7 +1252,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>20:42</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1268,22 +1267,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Mariapaz Ojeda</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Mariapaz Ojeda</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94979424</v>
+        <v>94980872</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,44 +1291,45 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Skurtjärn, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572426.1968956392</v>
+        <v>572435.745707145</v>
       </c>
       <c r="R7" t="n">
-        <v>6701243.683577545</v>
+        <v>6701433.942975808</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>20:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>20:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1398,10 +1398,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94979445</v>
+        <v>94979072</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572423.8744920741</v>
+        <v>572416.4402874345</v>
       </c>
       <c r="R8" t="n">
-        <v>6701260.916536125</v>
+        <v>6701459.721651074</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>20:42</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>20:42</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AD8" t="b">
